--- a/Knowork_TestCases.xlsx
+++ b/Knowork_TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcsglobal-my.sharepoint.com/personal/drashti_patel_kcsitglobal_com/Documents/QA-Trainning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Krish Compusoft Services Pvt Ltd\QA-Trainning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{978E9653-A93B-4D4E-8E58-AA80BC95FDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA0D051-2209-4F01-BA8A-D8EEFCD0FE3E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D67C8C-FB7D-47FF-BBE7-E38A68E57B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{91D9C8CD-F697-4ABD-AB63-A438B03A0E6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{91D9C8CD-F697-4ABD-AB63-A438B03A0E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Space" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="135">
   <si>
     <t>TC No.</t>
   </si>
@@ -306,7 +307,142 @@
     <t>Verify When Confirm Checkbox is Unchecked</t>
   </si>
   <si>
-    <t>Verify When Blank Name , Email , Password and Password Con</t>
+    <t>Verify When Blank Name , Email , Password and Password Confirmation</t>
+  </si>
+  <si>
+    <t>Verify When Invalid Name , Valid Email,Password,Confirmation Password</t>
+  </si>
+  <si>
+    <t>Verify When Valid Name,Password and Password Confirmation and Invalid Email</t>
+  </si>
+  <si>
+    <t>Verify When Valid Name,Email And Confirmation Password and Invalid Password</t>
+  </si>
+  <si>
+    <t>Verify Valid Name,Email and Password and Invalid Password Confirmation</t>
+  </si>
+  <si>
+    <t>Verify Valid Name,Email and Password and Password Confirmation</t>
+  </si>
+  <si>
+    <t>Verify Valid Name,Email and Password and Password Confirmation and Confirm Checkbox is unchecked</t>
+  </si>
+  <si>
+    <t>Verify Valid Name,Email and Password and Password Confirmation and Confirm Checkbox is Checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter with Invalid Space name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter blank Space name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter Space name with single character/single alphabet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter Space name name with numeric value  </t>
+  </si>
+  <si>
+    <t>Verify when enter Space name with alphanumeric value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter Space name with special character/junk character </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the trim of the Space name </t>
+  </si>
+  <si>
+    <t>Verify when enter Space name including all uppercase letters</t>
+  </si>
+  <si>
+    <t>Verify when enter Space name including all lowercase letters</t>
+  </si>
+  <si>
+    <t>Verify when enter Space name with more text length</t>
+  </si>
+  <si>
+    <t>Verify when enter Space name with single word</t>
+  </si>
+  <si>
+    <t>Verify when enter Space name with double word with space</t>
+  </si>
+  <si>
+    <t>Verify when enter with valid Subdomain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter with Invalid Subdomain </t>
+  </si>
+  <si>
+    <t>Verify when enter blank Subdomain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter Subdomain with single character/single alphabet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter Subdomain with numeric value  </t>
+  </si>
+  <si>
+    <t>Verify when enter Subdomain with alphanumeric value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when enter Subdomain with special character/junk character </t>
+  </si>
+  <si>
+    <t>Verify the trim of the Subdomain</t>
+  </si>
+  <si>
+    <t>Verify when enter Subdomain including all uppercase letters</t>
+  </si>
+  <si>
+    <t>Verify when enterSubdomain including all lowercase letters</t>
+  </si>
+  <si>
+    <t>Verify when enter Subdomain with more text length</t>
+  </si>
+  <si>
+    <t>Verify when enter Subdomain with single word</t>
+  </si>
+  <si>
+    <t>Verify when enter Subdomain with double word with space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the logo option  </t>
+  </si>
+  <si>
+    <t>Verify when user taps on logo option</t>
+  </si>
+  <si>
+    <t>Verify when user trying to attached multiple files at the same time</t>
+  </si>
+  <si>
+    <t>Verify when user trying to attached files by drag and drop option</t>
+  </si>
+  <si>
+    <t>Verify when user trying to attached files by copied option</t>
+  </si>
+  <si>
+    <t>Verify files should be attached properly or not</t>
+  </si>
+  <si>
+    <t>Verify blank logo option</t>
+  </si>
+  <si>
+    <t>Verify file preview is visible or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Send button </t>
+  </si>
+  <si>
+    <t>Verify the Minimum size of the attached file</t>
+  </si>
+  <si>
+    <t>Verify the Maximum size of the attached file</t>
+  </si>
+  <si>
+    <t>Verify user remove the attached file and trying to reattached that file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when Enter with valid Space name </t>
   </si>
 </sst>
 </file>
@@ -350,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -373,22 +509,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,7 +527,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8898A206-5706-446D-A8E1-80E8ED1E2264}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,10 +857,10 @@
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -829,7 +955,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -856,7 +982,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -883,7 +1009,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -910,7 +1036,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -937,7 +1063,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -964,7 +1090,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -991,7 +1117,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1018,7 +1144,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1045,7 +1171,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1072,7 +1198,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1099,7 +1225,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1126,7 +1252,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1153,7 +1279,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1180,7 +1306,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1234,7 +1360,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1753,23 +1879,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8111EA41-51C3-4487-A1C7-A3C72D399509}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2621,9 +2747,15 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D32" s="3" t="s">
         <v>75</v>
       </c>
@@ -2633,14 +2765,24 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D33" s="3" t="s">
         <v>76</v>
       </c>
@@ -2650,14 +2792,24 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>77</v>
       </c>
@@ -2667,14 +2819,24 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2684,13 +2846,24 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D36" s="3" t="s">
         <v>79</v>
       </c>
@@ -2700,13 +2873,24 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>80</v>
       </c>
@@ -2716,13 +2900,24 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>81</v>
       </c>
@@ -2732,13 +2927,24 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>82</v>
       </c>
@@ -2748,13 +2954,24 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>83</v>
       </c>
@@ -2764,14 +2981,24 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D41" s="3" t="s">
         <v>84</v>
       </c>
@@ -2781,14 +3008,24 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>85</v>
       </c>
@@ -2798,14 +3035,24 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D43" s="3" t="s">
         <v>86</v>
       </c>
@@ -2815,29 +3062,310 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D44" s="5" t="s">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D45" s="5" t="s">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D46" s="5" t="s">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D47" s="5" t="s">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2848,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71224387-2FB0-4221-BFA1-995CD42435A6}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2864,7 +3392,7 @@
     <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2905,26 +3433,879 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3148,18 +4529,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3182,14 +4563,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{789629DE-46D6-4D60-A8E4-24615E3FBD38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3DC72C-9935-40A7-BB19-1A4A476C778D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3204,4 +4577,12 @@
     <ds:schemaRef ds:uri="7c312a9e-bcd1-40f7-89ed-827dbe02b517"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{789629DE-46D6-4D60-A8E4-24615E3FBD38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>